--- a/Test/MC_Ssf/T1/Sensors_data_1000012.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000012.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.05951476461707217</v>
+        <v>0.9694163914104039</v>
       </c>
       <c r="D2" t="n">
-        <v>0.041426956261119</v>
+        <v>0.001195817045368207</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2965265849688909</v>
+        <v>0.09410710821153741</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5966281829433091</v>
+        <v>0.7969647002097644</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01448007121368482</v>
+        <v>0.007288475484744311</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.003689977841077052</v>
+        <v>-0.003840785607962971</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8407653714131715</v>
+        <v>0.9221721044048422</v>
       </c>
       <c r="D4" t="n">
-        <v>0.006565313525110135</v>
+        <v>0.003208878245369392</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.05262772285892958</v>
+        <v>0.01783050635692703</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
